--- a/data/output/FV2504_FV2410/UTILMD/55126.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55126.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4200" uniqueCount="471">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4221" uniqueCount="471">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1611,6 +1611,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U243" totalsRowShown="0">
+  <autoFilter ref="A1:U243"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1900,7 +1930,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12198,5 +12231,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55126.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55126.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5118" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5104" uniqueCount="705">
   <si>
     <t>#</t>
   </si>
@@ -5704,46 +5704,44 @@
       </c>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5" t="s">
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="K65" s="5" t="s">
+      <c r="K65" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="L65" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="M65" s="5" t="s">
+      <c r="L65" s="4"/>
+      <c r="M65" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N65" s="5" t="s">
+      <c r="N65" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5" t="s">
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="V65" s="5" t="s">
+      <c r="V65" s="2" t="s">
         <v>352</v>
       </c>
     </row>
@@ -5916,44 +5914,42 @@
       </c>
     </row>
     <row r="69" spans="1:22">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5" t="s">
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="K69" s="5"/>
-      <c r="L69" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="M69" s="5" t="s">
+      <c r="K69" s="2"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N69" s="5" t="s">
+      <c r="N69" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5" t="s">
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="V69" s="5"/>
+      <c r="V69" s="2"/>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="5" t="s">
@@ -9897,9 +9893,7 @@
         <v>316</v>
       </c>
       <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>373</v>
-      </c>
+      <c r="L155" s="4"/>
       <c r="M155" s="5" t="s">
         <v>45</v>
       </c>
@@ -10065,9 +10059,7 @@
         <v>338</v>
       </c>
       <c r="K158" s="5"/>
-      <c r="L158" s="7" t="s">
-        <v>373</v>
-      </c>
+      <c r="L158" s="4"/>
       <c r="M158" s="5" t="s">
         <v>46</v>
       </c>
@@ -11114,44 +11106,42 @@
       </c>
     </row>
     <row r="183" spans="1:22">
-      <c r="A183" s="5" t="s">
+      <c r="A183" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C183" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D183" s="5"/>
-      <c r="E183" s="5"/>
-      <c r="F183" s="5"/>
-      <c r="G183" s="5"/>
-      <c r="H183" s="5"/>
-      <c r="I183" s="5"/>
-      <c r="J183" s="5" t="s">
+      <c r="C183" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="K183" s="5"/>
-      <c r="L183" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="M183" s="5" t="s">
+      <c r="K183" s="2"/>
+      <c r="L183" s="4"/>
+      <c r="M183" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N183" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O183" s="5"/>
-      <c r="P183" s="5"/>
-      <c r="Q183" s="5"/>
-      <c r="R183" s="5"/>
-      <c r="S183" s="5"/>
-      <c r="T183" s="5"/>
-      <c r="U183" s="5" t="s">
+      <c r="N183" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O183" s="2"/>
+      <c r="P183" s="2"/>
+      <c r="Q183" s="2"/>
+      <c r="R183" s="2"/>
+      <c r="S183" s="2"/>
+      <c r="T183" s="2"/>
+      <c r="U183" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="V183" s="5"/>
+      <c r="V183" s="2"/>
     </row>
     <row r="184" spans="1:22">
       <c r="A184" s="5" t="s">
@@ -12917,9 +12907,7 @@
         <v>316</v>
       </c>
       <c r="K222" s="5"/>
-      <c r="L222" s="7" t="s">
-        <v>373</v>
-      </c>
+      <c r="L222" s="4"/>
       <c r="M222" s="5" t="s">
         <v>54</v>
       </c>
@@ -13149,9 +13137,7 @@
         <v>316</v>
       </c>
       <c r="K226" s="5"/>
-      <c r="L226" s="7" t="s">
-        <v>373</v>
-      </c>
+      <c r="L226" s="4"/>
       <c r="M226" s="5" t="s">
         <v>54</v>
       </c>

--- a/data/output/FV2504_FV2410/UTILMD/55126.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55126.xlsx
@@ -2297,7 +2297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2320,6 +2320,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2328,6 +2331,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2770,7 +2776,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3138,7 +3144,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3284,7 +3290,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3490,7 +3496,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3800,7 +3806,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3982,24 +3988,24 @@
       <c r="B26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8" t="s">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="9" t="s">
+      <c r="K26" s="9"/>
+      <c r="L26" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M26" s="5"/>
@@ -4017,33 +4023,33 @@
       <c r="A27" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M27" s="5"/>
@@ -4061,33 +4067,33 @@
       <c r="A28" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8" t="s">
+      <c r="H28" s="9"/>
+      <c r="I28" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="9" t="s">
+      <c r="K28" s="9"/>
+      <c r="L28" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M28" s="5"/>
@@ -4105,31 +4111,31 @@
       <c r="A29" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8" t="s">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8" t="s">
+      <c r="H29" s="9"/>
+      <c r="I29" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="9" t="s">
+      <c r="K29" s="9"/>
+      <c r="L29" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M29" s="5"/>
@@ -4147,31 +4153,31 @@
       <c r="A30" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8" t="s">
+      <c r="H30" s="9"/>
+      <c r="I30" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="9" t="s">
+      <c r="K30" s="9"/>
+      <c r="L30" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M30" s="5"/>
@@ -4189,31 +4195,31 @@
       <c r="A31" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8" t="s">
+      <c r="H31" s="9"/>
+      <c r="I31" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="9" t="s">
+      <c r="K31" s="9"/>
+      <c r="L31" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M31" s="5"/>
@@ -4231,31 +4237,31 @@
       <c r="A32" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8" t="s">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8" t="s">
+      <c r="H32" s="9"/>
+      <c r="I32" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="9" t="s">
+      <c r="K32" s="9"/>
+      <c r="L32" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M32" s="5"/>
@@ -4283,29 +4289,29 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="N33" s="11" t="s">
+      <c r="N33" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O33" s="11" t="s">
+      <c r="O33" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11" t="s">
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11" t="s">
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="V33" s="11"/>
+      <c r="V33" s="13"/>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="5" t="s">
@@ -4321,33 +4327,33 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="N34" s="11" t="s">
+      <c r="N34" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O34" s="11" t="s">
+      <c r="O34" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P34" s="11" t="s">
+      <c r="P34" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Q34" s="11" t="s">
+      <c r="Q34" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11" t="s">
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="U34" s="11" t="s">
+      <c r="U34" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="V34" s="11" t="s">
+      <c r="V34" s="13" t="s">
         <v>351</v>
       </c>
     </row>
@@ -4365,35 +4371,35 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="M35" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="N35" s="11" t="s">
+      <c r="N35" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O35" s="11" t="s">
+      <c r="O35" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P35" s="11" t="s">
+      <c r="P35" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="Q35" s="11" t="s">
+      <c r="Q35" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="R35" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11" t="s">
+      <c r="S35" s="13"/>
+      <c r="T35" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="U35" s="11" t="s">
+      <c r="U35" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="V35" s="11"/>
+      <c r="V35" s="13"/>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="5" t="s">
@@ -4409,33 +4415,33 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="M36" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="N36" s="11" t="s">
+      <c r="N36" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O36" s="11" t="s">
+      <c r="O36" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P36" s="11" t="s">
+      <c r="P36" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11" t="s">
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11" t="s">
+      <c r="S36" s="13"/>
+      <c r="T36" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="U36" s="11" t="s">
+      <c r="U36" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="V36" s="11"/>
+      <c r="V36" s="13"/>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
@@ -4451,33 +4457,33 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="N37" s="11" t="s">
+      <c r="N37" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O37" s="11" t="s">
+      <c r="O37" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="P37" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11" t="s">
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11" t="s">
+      <c r="S37" s="13"/>
+      <c r="T37" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="U37" s="11" t="s">
+      <c r="U37" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="V37" s="11"/>
+      <c r="V37" s="13"/>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="5" t="s">
@@ -4493,33 +4499,33 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="10" t="s">
+      <c r="L38" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="M38" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="N38" s="11" t="s">
+      <c r="N38" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O38" s="11" t="s">
+      <c r="O38" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="P38" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11" t="s">
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11" t="s">
+      <c r="S38" s="13"/>
+      <c r="T38" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="U38" s="11" t="s">
+      <c r="U38" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="V38" s="11"/>
+      <c r="V38" s="13"/>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
@@ -4535,33 +4541,33 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="M39" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="N39" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="O39" s="11" t="s">
+      <c r="O39" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="P39" s="11" t="s">
+      <c r="P39" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11" t="s">
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11" t="s">
+      <c r="S39" s="13"/>
+      <c r="T39" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="U39" s="11" t="s">
+      <c r="U39" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="V39" s="11"/>
+      <c r="V39" s="13"/>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="2" t="s">
@@ -4584,7 +4590,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -4894,7 +4900,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -5076,24 +5082,24 @@
       <c r="B50" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8" t="s">
+      <c r="E50" s="9"/>
+      <c r="F50" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8" t="s">
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K50" s="8"/>
-      <c r="L50" s="9" t="s">
+      <c r="K50" s="9"/>
+      <c r="L50" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M50" s="5"/>
@@ -5111,33 +5117,33 @@
       <c r="A51" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8" t="s">
+      <c r="H51" s="9"/>
+      <c r="I51" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="J51" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K51" s="8"/>
-      <c r="L51" s="9" t="s">
+      <c r="J51" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K51" s="9"/>
+      <c r="L51" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M51" s="5"/>
@@ -5155,31 +5161,31 @@
       <c r="A52" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9" t="s">
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M52" s="5"/>
@@ -5197,33 +5203,33 @@
       <c r="A53" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="9" t="s">
+      <c r="J53" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K53" s="9"/>
+      <c r="L53" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M53" s="5"/>
@@ -5244,24 +5250,24 @@
       <c r="B54" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
+      <c r="E54" s="9"/>
+      <c r="F54" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8" t="s">
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K54" s="8"/>
-      <c r="L54" s="9" t="s">
+      <c r="K54" s="9"/>
+      <c r="L54" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M54" s="5"/>
@@ -5279,33 +5285,33 @@
       <c r="A55" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8" t="s">
+      <c r="H55" s="9"/>
+      <c r="I55" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="J55" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K55" s="8"/>
-      <c r="L55" s="9" t="s">
+      <c r="J55" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K55" s="9"/>
+      <c r="L55" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M55" s="5"/>
@@ -5323,31 +5329,31 @@
       <c r="A56" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8" t="s">
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="J56" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="9" t="s">
+      <c r="K56" s="9"/>
+      <c r="L56" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M56" s="5"/>
@@ -5365,33 +5371,33 @@
       <c r="A57" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8" t="s">
+      <c r="H57" s="9"/>
+      <c r="I57" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="J57" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="9" t="s">
+      <c r="J57" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K57" s="9"/>
+      <c r="L57" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M57" s="5"/>
@@ -5412,26 +5418,26 @@
       <c r="B58" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
+      <c r="E58" s="9"/>
+      <c r="F58" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8" t="s">
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="K58" s="8" t="s">
+      <c r="K58" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="L58" s="9" t="s">
+      <c r="L58" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M58" s="5"/>
@@ -5449,33 +5455,33 @@
       <c r="A59" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8" t="s">
+      <c r="H59" s="9"/>
+      <c r="I59" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J59" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K59" s="8"/>
-      <c r="L59" s="9" t="s">
+      <c r="J59" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K59" s="9"/>
+      <c r="L59" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M59" s="5"/>
@@ -5493,33 +5499,33 @@
       <c r="A60" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G60" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8" t="s">
+      <c r="H60" s="9"/>
+      <c r="I60" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="J60" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="9" t="s">
+      <c r="J60" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M60" s="5"/>
@@ -5547,29 +5553,29 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O61" s="11" t="s">
+      <c r="O61" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P61" s="11"/>
-      <c r="Q61" s="11" t="s">
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="R61" s="11"/>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11" t="s">
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="V61" s="11"/>
+      <c r="V61" s="13"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
@@ -5585,35 +5591,35 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="P62" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="Q62" s="11" t="s">
+      <c r="Q62" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="R62" s="11" t="s">
+      <c r="R62" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11" t="s">
+      <c r="S62" s="13"/>
+      <c r="T62" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="U62" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V62" s="11"/>
+      <c r="U62" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="V62" s="13"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -5629,35 +5635,35 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P63" s="11" t="s">
+      <c r="P63" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="Q63" s="11" t="s">
+      <c r="Q63" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="R63" s="11" t="s">
+      <c r="R63" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11" t="s">
+      <c r="S63" s="13"/>
+      <c r="T63" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="U63" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V63" s="11"/>
+      <c r="U63" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="V63" s="13"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="5" t="s">
@@ -5673,33 +5679,33 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M64" s="11" t="s">
+      <c r="M64" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="N64" s="11" t="s">
+      <c r="N64" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="O64" s="11" t="s">
+      <c r="O64" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="P64" s="11" t="s">
+      <c r="P64" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="Q64" s="11"/>
-      <c r="R64" s="11" t="s">
+      <c r="Q64" s="13"/>
+      <c r="R64" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11" t="s">
+      <c r="S64" s="13"/>
+      <c r="T64" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="U64" s="11" t="s">
+      <c r="U64" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="V64" s="11" t="s">
+      <c r="V64" s="13" t="s">
         <v>456</v>
       </c>
     </row>
@@ -5726,7 +5732,7 @@
         <v>352</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5934,7 +5940,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -6133,25 +6139,25 @@
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="10" t="s">
+      <c r="L73" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M73" s="11" t="s">
+      <c r="M73" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="N73" s="11" t="s">
+      <c r="N73" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="11"/>
-      <c r="R73" s="11"/>
-      <c r="S73" s="11"/>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11" t="s">
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="13"/>
+      <c r="S73" s="13"/>
+      <c r="T73" s="13"/>
+      <c r="U73" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="V73" s="11" t="s">
+      <c r="V73" s="13" t="s">
         <v>457</v>
       </c>
     </row>
@@ -6169,29 +6175,29 @@
       <c r="I74" s="5"/>
       <c r="J74" s="5"/>
       <c r="K74" s="5"/>
-      <c r="L74" s="10" t="s">
+      <c r="L74" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M74" s="11" t="s">
+      <c r="M74" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="N74" s="11" t="s">
+      <c r="N74" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O74" s="11" t="s">
+      <c r="O74" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="11" t="s">
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="R74" s="11"/>
-      <c r="S74" s="11"/>
-      <c r="T74" s="11"/>
-      <c r="U74" s="11" t="s">
+      <c r="R74" s="13"/>
+      <c r="S74" s="13"/>
+      <c r="T74" s="13"/>
+      <c r="U74" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="V74" s="11"/>
+      <c r="V74" s="13"/>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="5" t="s">
@@ -6207,33 +6213,33 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="10" t="s">
+      <c r="L75" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M75" s="11" t="s">
+      <c r="M75" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="N75" s="11" t="s">
+      <c r="N75" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O75" s="11" t="s">
+      <c r="O75" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P75" s="11" t="s">
+      <c r="P75" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11" t="s">
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11" t="s">
+      <c r="S75" s="13"/>
+      <c r="T75" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="U75" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V75" s="11"/>
+      <c r="U75" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="V75" s="13"/>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="5" t="s">
@@ -6249,33 +6255,33 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="10" t="s">
+      <c r="L76" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M76" s="11" t="s">
+      <c r="M76" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="N76" s="11" t="s">
+      <c r="N76" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O76" s="11" t="s">
+      <c r="O76" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P76" s="11" t="s">
+      <c r="P76" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="Q76" s="11"/>
-      <c r="R76" s="11" t="s">
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11" t="s">
+      <c r="S76" s="13"/>
+      <c r="T76" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="U76" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V76" s="11"/>
+      <c r="U76" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="V76" s="13"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="5" t="s">
@@ -6291,33 +6297,33 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="10" t="s">
+      <c r="L77" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M77" s="11" t="s">
+      <c r="M77" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="N77" s="11" t="s">
+      <c r="N77" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O77" s="11" t="s">
+      <c r="O77" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="P77" s="11" t="s">
+      <c r="P77" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="Q77" s="11" t="s">
+      <c r="Q77" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="R77" s="11"/>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11" t="s">
+      <c r="R77" s="13"/>
+      <c r="S77" s="13"/>
+      <c r="T77" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="U77" s="11" t="s">
+      <c r="U77" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="V77" s="11" t="s">
+      <c r="V77" s="13" t="s">
         <v>458</v>
       </c>
     </row>
@@ -6335,29 +6341,29 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="10" t="s">
+      <c r="L78" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M78" s="11" t="s">
+      <c r="M78" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="N78" s="11" t="s">
+      <c r="N78" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O78" s="11" t="s">
+      <c r="O78" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="11" t="s">
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="11"/>
-      <c r="U78" s="11" t="s">
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13"/>
+      <c r="U78" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="V78" s="11" t="s">
+      <c r="V78" s="13" t="s">
         <v>459</v>
       </c>
     </row>
@@ -6375,35 +6381,35 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="10" t="s">
+      <c r="L79" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M79" s="11" t="s">
+      <c r="M79" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="N79" s="11" t="s">
+      <c r="N79" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O79" s="11" t="s">
+      <c r="O79" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P79" s="11" t="s">
+      <c r="P79" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="Q79" s="11" t="s">
+      <c r="Q79" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="R79" s="11" t="s">
+      <c r="R79" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="S79" s="11"/>
-      <c r="T79" s="11" t="s">
+      <c r="S79" s="13"/>
+      <c r="T79" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="U79" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V79" s="11"/>
+      <c r="U79" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="V79" s="13"/>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="5" t="s">
@@ -6419,33 +6425,33 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="10" t="s">
+      <c r="L80" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M80" s="11" t="s">
+      <c r="M80" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="N80" s="11" t="s">
+      <c r="N80" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O80" s="11" t="s">
+      <c r="O80" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P80" s="11" t="s">
+      <c r="P80" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="Q80" s="11" t="s">
+      <c r="Q80" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="R80" s="11"/>
-      <c r="S80" s="11"/>
-      <c r="T80" s="11" t="s">
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="U80" s="11" t="s">
+      <c r="U80" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="V80" s="11"/>
+      <c r="V80" s="13"/>
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="5" t="s">
@@ -6461,35 +6467,35 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="10" t="s">
+      <c r="L81" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M81" s="11" t="s">
+      <c r="M81" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="N81" s="11" t="s">
+      <c r="N81" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O81" s="11" t="s">
+      <c r="O81" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P81" s="11" t="s">
+      <c r="P81" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="Q81" s="11" t="s">
+      <c r="Q81" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="R81" s="11" t="s">
+      <c r="R81" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11" t="s">
+      <c r="S81" s="13"/>
+      <c r="T81" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="U81" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V81" s="11"/>
+      <c r="U81" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="V81" s="13"/>
     </row>
     <row r="82" spans="1:22">
       <c r="A82" s="5" t="s">
@@ -6505,29 +6511,29 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="10" t="s">
+      <c r="L82" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M82" s="11" t="s">
+      <c r="M82" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="N82" s="11" t="s">
+      <c r="N82" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O82" s="11" t="s">
+      <c r="O82" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="11" t="s">
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="R82" s="11"/>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11"/>
-      <c r="U82" s="11" t="s">
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13"/>
+      <c r="U82" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="V82" s="11" t="s">
+      <c r="V82" s="13" t="s">
         <v>460</v>
       </c>
     </row>
@@ -6545,35 +6551,35 @@
       <c r="I83" s="5"/>
       <c r="J83" s="5"/>
       <c r="K83" s="5"/>
-      <c r="L83" s="10" t="s">
+      <c r="L83" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M83" s="11" t="s">
+      <c r="M83" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="N83" s="11" t="s">
+      <c r="N83" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O83" s="11" t="s">
+      <c r="O83" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P83" s="11" t="s">
+      <c r="P83" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="Q83" s="11" t="s">
+      <c r="Q83" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="R83" s="11" t="s">
+      <c r="R83" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="S83" s="11"/>
-      <c r="T83" s="11" t="s">
+      <c r="S83" s="13"/>
+      <c r="T83" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="U83" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V83" s="11"/>
+      <c r="U83" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="V83" s="13"/>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="5" t="s">
@@ -6589,33 +6595,33 @@
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
-      <c r="L84" s="10" t="s">
+      <c r="L84" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M84" s="11" t="s">
+      <c r="M84" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="N84" s="11" t="s">
+      <c r="N84" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O84" s="11" t="s">
+      <c r="O84" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P84" s="11" t="s">
+      <c r="P84" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="Q84" s="11" t="s">
+      <c r="Q84" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="R84" s="11"/>
-      <c r="S84" s="11"/>
-      <c r="T84" s="11" t="s">
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="U84" s="11" t="s">
+      <c r="U84" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="V84" s="11"/>
+      <c r="V84" s="13"/>
     </row>
     <row r="85" spans="1:22">
       <c r="A85" s="5" t="s">
@@ -6631,52 +6637,52 @@
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5"/>
-      <c r="L85" s="10" t="s">
+      <c r="L85" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M85" s="11" t="s">
+      <c r="M85" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="N85" s="11" t="s">
+      <c r="N85" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O85" s="11" t="s">
+      <c r="O85" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="P85" s="11" t="s">
+      <c r="P85" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="Q85" s="11" t="s">
+      <c r="Q85" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="R85" s="11" t="s">
+      <c r="R85" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="S85" s="11"/>
-      <c r="T85" s="11" t="s">
+      <c r="S85" s="13"/>
+      <c r="T85" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="U85" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V85" s="11"/>
+      <c r="U85" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="V85" s="13"/>
     </row>
     <row r="86" spans="1:22">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
       <c r="J86" s="6" t="s">
         <v>322</v>
       </c>
@@ -6686,18 +6692,18 @@
       <c r="L86" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="M86" s="5" t="s">
+      <c r="M86" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N86" s="5" t="s">
+      <c r="N86" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
       <c r="U86" s="6" t="s">
         <v>448</v>
       </c>
@@ -6820,24 +6826,24 @@
       <c r="B89" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8" t="s">
+      <c r="E89" s="9"/>
+      <c r="F89" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8" t="s">
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K89" s="8"/>
-      <c r="L89" s="9" t="s">
+      <c r="K89" s="9"/>
+      <c r="L89" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M89" s="5"/>
@@ -6855,33 +6861,33 @@
       <c r="A90" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G90" s="8" t="s">
+      <c r="G90" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8" t="s">
+      <c r="H90" s="9"/>
+      <c r="I90" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J90" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K90" s="8"/>
-      <c r="L90" s="9" t="s">
+      <c r="J90" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K90" s="9"/>
+      <c r="L90" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M90" s="5"/>
@@ -6899,33 +6905,33 @@
       <c r="A91" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8" t="s">
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="J91" s="8" t="s">
+      <c r="J91" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="K91" s="8" t="s">
+      <c r="K91" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="L91" s="9" t="s">
+      <c r="L91" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M91" s="5"/>
@@ -6953,53 +6959,53 @@
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
-      <c r="L92" s="10" t="s">
+      <c r="L92" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M92" s="11" t="s">
+      <c r="M92" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="N92" s="11" t="s">
+      <c r="N92" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O92" s="11" t="s">
+      <c r="O92" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P92" s="11" t="s">
+      <c r="P92" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="Q92" s="11" t="s">
+      <c r="Q92" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="R92" s="11"/>
-      <c r="S92" s="11"/>
-      <c r="T92" s="11" t="s">
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="U92" s="11" t="s">
+      <c r="U92" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="V92" s="11" t="s">
+      <c r="V92" s="13" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5" t="s">
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2" t="s">
         <v>324</v>
       </c>
       <c r="K93" s="6" t="s">
@@ -7008,19 +7014,19 @@
       <c r="L93" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="M93" s="5" t="s">
+      <c r="M93" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N93" s="5" t="s">
+      <c r="N93" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5" t="s">
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2" t="s">
         <v>324</v>
       </c>
       <c r="V93" s="6" t="s">
@@ -7375,31 +7381,31 @@
       <c r="A100" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8" t="s">
+      <c r="F100" s="9"/>
+      <c r="G100" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8" t="s">
+      <c r="H100" s="9"/>
+      <c r="I100" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="J100" s="8" t="s">
+      <c r="J100" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="K100" s="8"/>
-      <c r="L100" s="9" t="s">
+      <c r="K100" s="9"/>
+      <c r="L100" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M100" s="5"/>
@@ -7417,33 +7423,33 @@
       <c r="A101" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8" t="s">
+      <c r="F101" s="9"/>
+      <c r="G101" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8" t="s">
+      <c r="H101" s="9"/>
+      <c r="I101" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="J101" s="8" t="s">
+      <c r="J101" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="K101" s="8" t="s">
+      <c r="K101" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="L101" s="9" t="s">
+      <c r="L101" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M101" s="5"/>
@@ -7458,21 +7464,21 @@
       <c r="V101" s="5"/>
     </row>
     <row r="102" spans="1:22">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
       <c r="J102" s="6" t="s">
         <v>330</v>
       </c>
@@ -7482,18 +7488,18 @@
       <c r="L102" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="M102" s="5" t="s">
+      <c r="M102" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N102" s="5" t="s">
+      <c r="N102" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O102" s="5"/>
-      <c r="P102" s="5"/>
-      <c r="Q102" s="5"/>
-      <c r="R102" s="5"/>
-      <c r="S102" s="5"/>
-      <c r="T102" s="5"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
       <c r="U102" s="6" t="s">
         <v>451</v>
       </c>
@@ -7736,20 +7742,20 @@
       <c r="B107" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C107" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
-      <c r="J107" s="8" t="s">
+      <c r="C107" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K107" s="8"/>
-      <c r="L107" s="9" t="s">
+      <c r="K107" s="9"/>
+      <c r="L107" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M107" s="5"/>
@@ -7767,27 +7773,27 @@
       <c r="A108" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C108" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D108" s="8" t="s">
+      <c r="C108" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D108" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8" t="s">
+      <c r="E108" s="9"/>
+      <c r="F108" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
-      <c r="J108" s="8" t="s">
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K108" s="8"/>
-      <c r="L108" s="9" t="s">
+      <c r="K108" s="9"/>
+      <c r="L108" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M108" s="5"/>
@@ -7805,33 +7811,33 @@
       <c r="A109" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C109" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D109" s="8" t="s">
+      <c r="C109" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D109" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="E109" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G109" s="8" t="s">
+      <c r="G109" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8" t="s">
+      <c r="H109" s="9"/>
+      <c r="I109" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J109" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K109" s="8"/>
-      <c r="L109" s="9" t="s">
+      <c r="J109" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K109" s="9"/>
+      <c r="L109" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M109" s="5"/>
@@ -7849,33 +7855,33 @@
       <c r="A110" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C110" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D110" s="8" t="s">
+      <c r="C110" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F110" s="8" t="s">
+      <c r="F110" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G110" s="8" t="s">
+      <c r="G110" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8" t="s">
+      <c r="H110" s="9"/>
+      <c r="I110" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="J110" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K110" s="8"/>
-      <c r="L110" s="9" t="s">
+      <c r="J110" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K110" s="9"/>
+      <c r="L110" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M110" s="5"/>
@@ -7893,31 +7899,31 @@
       <c r="A111" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C111" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D111" s="8" t="s">
+      <c r="C111" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D111" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E111" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F111" s="8"/>
-      <c r="G111" s="8" t="s">
+      <c r="F111" s="9"/>
+      <c r="G111" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8" t="s">
+      <c r="H111" s="9"/>
+      <c r="I111" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="J111" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K111" s="8"/>
-      <c r="L111" s="9" t="s">
+      <c r="J111" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K111" s="9"/>
+      <c r="L111" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M111" s="5"/>
@@ -7945,25 +7951,25 @@
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
-      <c r="L112" s="10" t="s">
+      <c r="L112" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M112" s="11" t="s">
+      <c r="M112" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="N112" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O112" s="11"/>
-      <c r="P112" s="11"/>
-      <c r="Q112" s="11"/>
-      <c r="R112" s="11"/>
-      <c r="S112" s="11"/>
-      <c r="T112" s="11"/>
-      <c r="U112" s="11" t="s">
+      <c r="N112" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O112" s="13"/>
+      <c r="P112" s="13"/>
+      <c r="Q112" s="13"/>
+      <c r="R112" s="13"/>
+      <c r="S112" s="13"/>
+      <c r="T112" s="13"/>
+      <c r="U112" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="V112" s="11" t="s">
+      <c r="V112" s="13" t="s">
         <v>466</v>
       </c>
     </row>
@@ -7981,29 +7987,29 @@
       <c r="I113" s="5"/>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
-      <c r="L113" s="10" t="s">
+      <c r="L113" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M113" s="11" t="s">
+      <c r="M113" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="N113" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O113" s="11" t="s">
+      <c r="N113" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O113" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="P113" s="11"/>
-      <c r="Q113" s="11" t="s">
+      <c r="P113" s="13"/>
+      <c r="Q113" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R113" s="11"/>
-      <c r="S113" s="11"/>
-      <c r="T113" s="11"/>
-      <c r="U113" s="11" t="s">
+      <c r="R113" s="13"/>
+      <c r="S113" s="13"/>
+      <c r="T113" s="13"/>
+      <c r="U113" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="V113" s="11"/>
+      <c r="V113" s="13"/>
     </row>
     <row r="114" spans="1:22">
       <c r="A114" s="5" t="s">
@@ -8019,35 +8025,35 @@
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
-      <c r="L114" s="10" t="s">
+      <c r="L114" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M114" s="11" t="s">
+      <c r="M114" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="N114" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O114" s="11" t="s">
+      <c r="N114" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O114" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="P114" s="11" t="s">
+      <c r="P114" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="Q114" s="11" t="s">
+      <c r="Q114" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="R114" s="11" t="s">
+      <c r="R114" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="S114" s="11"/>
-      <c r="T114" s="11" t="s">
+      <c r="S114" s="13"/>
+      <c r="T114" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="U114" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V114" s="11"/>
+      <c r="U114" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="V114" s="13"/>
     </row>
     <row r="115" spans="1:22">
       <c r="A115" s="5" t="s">
@@ -8063,29 +8069,29 @@
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
-      <c r="L115" s="10" t="s">
+      <c r="L115" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M115" s="11" t="s">
+      <c r="M115" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="N115" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O115" s="11" t="s">
+      <c r="N115" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O115" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="P115" s="11"/>
-      <c r="Q115" s="11" t="s">
+      <c r="P115" s="13"/>
+      <c r="Q115" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="R115" s="11"/>
-      <c r="S115" s="11"/>
-      <c r="T115" s="11"/>
-      <c r="U115" s="11" t="s">
+      <c r="R115" s="13"/>
+      <c r="S115" s="13"/>
+      <c r="T115" s="13"/>
+      <c r="U115" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="V115" s="11"/>
+      <c r="V115" s="13"/>
     </row>
     <row r="116" spans="1:22">
       <c r="A116" s="5" t="s">
@@ -8101,35 +8107,35 @@
       <c r="I116" s="5"/>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
-      <c r="L116" s="10" t="s">
+      <c r="L116" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M116" s="11" t="s">
+      <c r="M116" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="N116" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O116" s="11" t="s">
+      <c r="N116" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O116" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="P116" s="11" t="s">
+      <c r="P116" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="Q116" s="11" t="s">
+      <c r="Q116" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="R116" s="11" t="s">
+      <c r="R116" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="S116" s="11"/>
-      <c r="T116" s="11" t="s">
+      <c r="S116" s="13"/>
+      <c r="T116" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="U116" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V116" s="11"/>
+      <c r="U116" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="V116" s="13"/>
     </row>
     <row r="117" spans="1:22">
       <c r="A117" s="5" t="s">
@@ -8145,50 +8151,50 @@
       <c r="I117" s="5"/>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
-      <c r="L117" s="10" t="s">
+      <c r="L117" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M117" s="11" t="s">
+      <c r="M117" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="N117" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O117" s="11" t="s">
+      <c r="N117" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O117" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="P117" s="11" t="s">
+      <c r="P117" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="Q117" s="11" t="s">
+      <c r="Q117" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="R117" s="11"/>
-      <c r="S117" s="11"/>
-      <c r="T117" s="11" t="s">
+      <c r="R117" s="13"/>
+      <c r="S117" s="13"/>
+      <c r="T117" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="U117" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V117" s="11"/>
+      <c r="U117" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="V117" s="13"/>
     </row>
     <row r="118" spans="1:22">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D118" s="5"/>
-      <c r="E118" s="5"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
+      <c r="C118" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
       <c r="J118" s="6" t="s">
         <v>332</v>
       </c>
@@ -8198,18 +8204,18 @@
       <c r="L118" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="M118" s="5" t="s">
+      <c r="M118" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N118" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O118" s="5"/>
-      <c r="P118" s="5"/>
-      <c r="Q118" s="5"/>
-      <c r="R118" s="5"/>
-      <c r="S118" s="5"/>
-      <c r="T118" s="5"/>
+      <c r="N118" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
       <c r="U118" s="6" t="s">
         <v>315</v>
       </c>
@@ -8395,25 +8401,25 @@
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
-      <c r="L122" s="10" t="s">
+      <c r="L122" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M122" s="11" t="s">
+      <c r="M122" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="N122" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O122" s="11"/>
-      <c r="P122" s="11"/>
-      <c r="Q122" s="11"/>
-      <c r="R122" s="11"/>
-      <c r="S122" s="11"/>
-      <c r="T122" s="11"/>
-      <c r="U122" s="11" t="s">
+      <c r="N122" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O122" s="13"/>
+      <c r="P122" s="13"/>
+      <c r="Q122" s="13"/>
+      <c r="R122" s="13"/>
+      <c r="S122" s="13"/>
+      <c r="T122" s="13"/>
+      <c r="U122" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="V122" s="11" t="s">
+      <c r="V122" s="13" t="s">
         <v>467</v>
       </c>
     </row>
@@ -8431,29 +8437,29 @@
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
-      <c r="L123" s="10" t="s">
+      <c r="L123" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M123" s="11" t="s">
+      <c r="M123" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="N123" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O123" s="11" t="s">
+      <c r="N123" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O123" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="P123" s="11"/>
-      <c r="Q123" s="11" t="s">
+      <c r="P123" s="13"/>
+      <c r="Q123" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="R123" s="11"/>
-      <c r="S123" s="11"/>
-      <c r="T123" s="11"/>
-      <c r="U123" s="11" t="s">
+      <c r="R123" s="13"/>
+      <c r="S123" s="13"/>
+      <c r="T123" s="13"/>
+      <c r="U123" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="V123" s="11"/>
+      <c r="V123" s="13"/>
     </row>
     <row r="124" spans="1:22">
       <c r="A124" s="5" t="s">
@@ -8469,35 +8475,35 @@
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
-      <c r="L124" s="10" t="s">
+      <c r="L124" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M124" s="11" t="s">
+      <c r="M124" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="N124" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O124" s="11" t="s">
+      <c r="N124" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O124" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="P124" s="11" t="s">
+      <c r="P124" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="Q124" s="11" t="s">
+      <c r="Q124" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="R124" s="11" t="s">
+      <c r="R124" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="S124" s="11"/>
-      <c r="T124" s="11" t="s">
+      <c r="S124" s="13"/>
+      <c r="T124" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="U124" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V124" s="11"/>
+      <c r="U124" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="V124" s="13"/>
     </row>
     <row r="125" spans="1:22">
       <c r="A125" s="5" t="s">
@@ -8513,50 +8519,50 @@
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
-      <c r="L125" s="10" t="s">
+      <c r="L125" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M125" s="11" t="s">
+      <c r="M125" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="N125" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O125" s="11" t="s">
+      <c r="N125" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O125" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="P125" s="11" t="s">
+      <c r="P125" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="Q125" s="11" t="s">
+      <c r="Q125" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="R125" s="11"/>
-      <c r="S125" s="11"/>
-      <c r="T125" s="11" t="s">
+      <c r="R125" s="13"/>
+      <c r="S125" s="13"/>
+      <c r="T125" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="U125" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V125" s="11"/>
+      <c r="U125" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="V125" s="13"/>
     </row>
     <row r="126" spans="1:22">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D126" s="5"/>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
+      <c r="C126" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
       <c r="J126" s="6" t="s">
         <v>333</v>
       </c>
@@ -8566,18 +8572,18 @@
       <c r="L126" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="M126" s="5" t="s">
+      <c r="M126" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N126" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O126" s="5"/>
-      <c r="P126" s="5"/>
-      <c r="Q126" s="5"/>
-      <c r="R126" s="5"/>
-      <c r="S126" s="5"/>
-      <c r="T126" s="5"/>
+      <c r="N126" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
       <c r="U126" s="6" t="s">
         <v>452</v>
       </c>
@@ -8756,22 +8762,22 @@
       <c r="B130" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C130" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="8"/>
-      <c r="J130" s="8" t="s">
+      <c r="C130" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="K130" s="8" t="s">
+      <c r="K130" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="L130" s="9" t="s">
+      <c r="L130" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M130" s="5"/>
@@ -8789,27 +8795,27 @@
       <c r="A131" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C131" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D131" s="8" t="s">
+      <c r="C131" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D131" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8" t="s">
+      <c r="E131" s="9"/>
+      <c r="F131" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8" t="s">
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K131" s="8"/>
-      <c r="L131" s="9" t="s">
+      <c r="K131" s="9"/>
+      <c r="L131" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M131" s="5"/>
@@ -8827,33 +8833,33 @@
       <c r="A132" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C132" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D132" s="8" t="s">
+      <c r="C132" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D132" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="E132" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F132" s="8" t="s">
+      <c r="F132" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G132" s="8" t="s">
+      <c r="G132" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="H132" s="8"/>
-      <c r="I132" s="8" t="s">
+      <c r="H132" s="9"/>
+      <c r="I132" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="J132" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K132" s="8"/>
-      <c r="L132" s="9" t="s">
+      <c r="J132" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K132" s="9"/>
+      <c r="L132" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M132" s="5"/>
@@ -8871,27 +8877,27 @@
       <c r="A133" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C133" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D133" s="8" t="s">
+      <c r="C133" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D133" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8" t="s">
+      <c r="E133" s="9"/>
+      <c r="F133" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="8"/>
-      <c r="J133" s="8" t="s">
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K133" s="8"/>
-      <c r="L133" s="9" t="s">
+      <c r="K133" s="9"/>
+      <c r="L133" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M133" s="5"/>
@@ -8909,33 +8915,33 @@
       <c r="A134" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C134" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D134" s="8" t="s">
+      <c r="C134" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D134" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="E134" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F134" s="8" t="s">
+      <c r="F134" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G134" s="8" t="s">
+      <c r="G134" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="H134" s="8"/>
-      <c r="I134" s="8" t="s">
+      <c r="H134" s="9"/>
+      <c r="I134" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="J134" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K134" s="8"/>
-      <c r="L134" s="9" t="s">
+      <c r="J134" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K134" s="9"/>
+      <c r="L134" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M134" s="5"/>
@@ -8953,33 +8959,33 @@
       <c r="A135" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C135" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D135" s="8" t="s">
+      <c r="C135" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D135" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="E135" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F135" s="8" t="s">
+      <c r="F135" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G135" s="8"/>
-      <c r="H135" s="8"/>
-      <c r="I135" s="8" t="s">
+      <c r="G135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="J135" s="8" t="s">
+      <c r="J135" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="K135" s="8" t="s">
+      <c r="K135" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="L135" s="9" t="s">
+      <c r="L135" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M135" s="5"/>
@@ -8994,21 +9000,21 @@
       <c r="V135" s="5"/>
     </row>
     <row r="136" spans="1:22">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C136" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D136" s="5"/>
-      <c r="E136" s="5"/>
-      <c r="F136" s="5"/>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
+      <c r="C136" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
       <c r="J136" s="6" t="s">
         <v>335</v>
       </c>
@@ -9018,18 +9024,18 @@
       <c r="L136" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="M136" s="5" t="s">
+      <c r="M136" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N136" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O136" s="5"/>
-      <c r="P136" s="5"/>
-      <c r="Q136" s="5"/>
-      <c r="R136" s="5"/>
-      <c r="S136" s="5"/>
-      <c r="T136" s="5"/>
+      <c r="N136" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" s="2"/>
+      <c r="R136" s="2"/>
+      <c r="S136" s="2"/>
+      <c r="T136" s="2"/>
       <c r="U136" s="6" t="s">
         <v>453</v>
       </c>
@@ -9316,20 +9322,20 @@
       <c r="B142" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C142" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8" t="s">
+      <c r="C142" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K142" s="8"/>
-      <c r="L142" s="9" t="s">
+      <c r="K142" s="9"/>
+      <c r="L142" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M142" s="5"/>
@@ -9347,27 +9353,27 @@
       <c r="A143" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="B143" s="8" t="s">
+      <c r="B143" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C143" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D143" s="8" t="s">
+      <c r="C143" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D143" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8" t="s">
+      <c r="E143" s="9"/>
+      <c r="F143" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8" t="s">
+      <c r="G143" s="9"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K143" s="8"/>
-      <c r="L143" s="9" t="s">
+      <c r="K143" s="9"/>
+      <c r="L143" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M143" s="5"/>
@@ -9385,33 +9391,33 @@
       <c r="A144" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C144" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D144" s="8" t="s">
+      <c r="C144" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D144" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E144" s="8" t="s">
+      <c r="E144" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F144" s="8" t="s">
+      <c r="F144" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G144" s="8" t="s">
+      <c r="G144" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="H144" s="8"/>
-      <c r="I144" s="8" t="s">
+      <c r="H144" s="9"/>
+      <c r="I144" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="J144" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K144" s="8"/>
-      <c r="L144" s="9" t="s">
+      <c r="J144" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K144" s="9"/>
+      <c r="L144" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M144" s="5"/>
@@ -9429,33 +9435,33 @@
       <c r="A145" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C145" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D145" s="8" t="s">
+      <c r="C145" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D145" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E145" s="8" t="s">
+      <c r="E145" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F145" s="8" t="s">
+      <c r="F145" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G145" s="8" t="s">
+      <c r="G145" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="H145" s="8"/>
-      <c r="I145" s="8" t="s">
+      <c r="H145" s="9"/>
+      <c r="I145" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="J145" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K145" s="8"/>
-      <c r="L145" s="9" t="s">
+      <c r="J145" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K145" s="9"/>
+      <c r="L145" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M145" s="5"/>
@@ -9473,31 +9479,31 @@
       <c r="A146" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C146" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D146" s="8" t="s">
+      <c r="C146" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D146" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E146" s="8" t="s">
+      <c r="E146" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F146" s="8"/>
-      <c r="G146" s="8" t="s">
+      <c r="F146" s="9"/>
+      <c r="G146" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="H146" s="8"/>
-      <c r="I146" s="8" t="s">
+      <c r="H146" s="9"/>
+      <c r="I146" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="J146" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K146" s="8"/>
-      <c r="L146" s="9" t="s">
+      <c r="J146" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K146" s="9"/>
+      <c r="L146" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M146" s="5"/>
@@ -9525,25 +9531,25 @@
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
-      <c r="L147" s="10" t="s">
+      <c r="L147" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M147" s="11" t="s">
+      <c r="M147" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="N147" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O147" s="11"/>
-      <c r="P147" s="11"/>
-      <c r="Q147" s="11"/>
-      <c r="R147" s="11"/>
-      <c r="S147" s="11"/>
-      <c r="T147" s="11"/>
-      <c r="U147" s="11" t="s">
+      <c r="N147" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O147" s="13"/>
+      <c r="P147" s="13"/>
+      <c r="Q147" s="13"/>
+      <c r="R147" s="13"/>
+      <c r="S147" s="13"/>
+      <c r="T147" s="13"/>
+      <c r="U147" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="V147" s="11" t="s">
+      <c r="V147" s="13" t="s">
         <v>466</v>
       </c>
     </row>
@@ -9561,29 +9567,29 @@
       <c r="I148" s="5"/>
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
-      <c r="L148" s="10" t="s">
+      <c r="L148" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M148" s="11" t="s">
+      <c r="M148" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="N148" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O148" s="11" t="s">
+      <c r="N148" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O148" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="P148" s="11"/>
-      <c r="Q148" s="11" t="s">
+      <c r="P148" s="13"/>
+      <c r="Q148" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="R148" s="11"/>
-      <c r="S148" s="11"/>
-      <c r="T148" s="11"/>
-      <c r="U148" s="11" t="s">
+      <c r="R148" s="13"/>
+      <c r="S148" s="13"/>
+      <c r="T148" s="13"/>
+      <c r="U148" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="V148" s="11"/>
+      <c r="V148" s="13"/>
     </row>
     <row r="149" spans="1:22">
       <c r="A149" s="5" t="s">
@@ -9599,35 +9605,35 @@
       <c r="I149" s="5"/>
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
-      <c r="L149" s="10" t="s">
+      <c r="L149" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M149" s="11" t="s">
+      <c r="M149" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="N149" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O149" s="11" t="s">
+      <c r="N149" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O149" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="P149" s="11" t="s">
+      <c r="P149" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="Q149" s="11" t="s">
+      <c r="Q149" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="R149" s="11" t="s">
+      <c r="R149" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="S149" s="11"/>
-      <c r="T149" s="11" t="s">
+      <c r="S149" s="13"/>
+      <c r="T149" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="U149" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V149" s="11"/>
+      <c r="U149" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="V149" s="13"/>
     </row>
     <row r="150" spans="1:22">
       <c r="A150" s="5" t="s">
@@ -9643,35 +9649,35 @@
       <c r="I150" s="5"/>
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
-      <c r="L150" s="10" t="s">
+      <c r="L150" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M150" s="11" t="s">
+      <c r="M150" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="N150" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O150" s="11" t="s">
+      <c r="N150" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O150" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="P150" s="11" t="s">
+      <c r="P150" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="Q150" s="11" t="s">
+      <c r="Q150" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="R150" s="11" t="s">
+      <c r="R150" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="S150" s="11"/>
-      <c r="T150" s="11" t="s">
+      <c r="S150" s="13"/>
+      <c r="T150" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="U150" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V150" s="11"/>
+      <c r="U150" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="V150" s="13"/>
     </row>
     <row r="151" spans="1:22">
       <c r="A151" s="5" t="s">
@@ -9687,50 +9693,50 @@
       <c r="I151" s="5"/>
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
-      <c r="L151" s="10" t="s">
+      <c r="L151" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M151" s="11" t="s">
+      <c r="M151" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="N151" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O151" s="11" t="s">
+      <c r="N151" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O151" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="P151" s="11" t="s">
+      <c r="P151" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="Q151" s="11"/>
-      <c r="R151" s="11" t="s">
+      <c r="Q151" s="13"/>
+      <c r="R151" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="S151" s="11"/>
-      <c r="T151" s="11" t="s">
+      <c r="S151" s="13"/>
+      <c r="T151" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="U151" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V151" s="11"/>
+      <c r="U151" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="V151" s="13"/>
     </row>
     <row r="152" spans="1:22">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C152" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
+      <c r="C152" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
       <c r="J152" s="6" t="s">
         <v>315</v>
       </c>
@@ -9738,18 +9744,18 @@
       <c r="L152" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="M152" s="5" t="s">
+      <c r="M152" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N152" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O152" s="5"/>
-      <c r="P152" s="5"/>
-      <c r="Q152" s="5"/>
-      <c r="R152" s="5"/>
-      <c r="S152" s="5"/>
-      <c r="T152" s="5"/>
+      <c r="N152" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O152" s="2"/>
+      <c r="P152" s="2"/>
+      <c r="Q152" s="2"/>
+      <c r="R152" s="2"/>
+      <c r="S152" s="2"/>
+      <c r="T152" s="2"/>
       <c r="U152" s="6" t="s">
         <v>452</v>
       </c>
@@ -9920,26 +9926,26 @@
       <c r="V155" s="5"/>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C156" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D156" s="5" t="s">
+      <c r="C156" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E156" s="5"/>
+      <c r="E156" s="2"/>
       <c r="F156" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5" t="s">
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2" t="s">
         <v>336</v>
       </c>
       <c r="K156" s="6" t="s">
@@ -9948,23 +9954,23 @@
       <c r="L156" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="M156" s="5" t="s">
+      <c r="M156" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N156" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O156" s="5" t="s">
+      <c r="N156" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O156" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P156" s="5"/>
+      <c r="P156" s="2"/>
       <c r="Q156" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="R156" s="5"/>
-      <c r="S156" s="5"/>
-      <c r="T156" s="5"/>
-      <c r="U156" s="5" t="s">
+      <c r="R156" s="2"/>
+      <c r="S156" s="2"/>
+      <c r="T156" s="2"/>
+      <c r="U156" s="2" t="s">
         <v>336</v>
       </c>
       <c r="V156" s="6" t="s">
@@ -10089,31 +10095,31 @@
       <c r="A159" s="5" t="s">
         <v>620</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B159" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C159" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D159" s="8" t="s">
+      <c r="C159" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D159" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E159" s="8" t="s">
+      <c r="E159" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F159" s="8"/>
-      <c r="G159" s="8" t="s">
+      <c r="F159" s="9"/>
+      <c r="G159" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="H159" s="8"/>
-      <c r="I159" s="8" t="s">
+      <c r="H159" s="9"/>
+      <c r="I159" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="J159" s="8" t="s">
+      <c r="J159" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="K159" s="8"/>
-      <c r="L159" s="9" t="s">
+      <c r="K159" s="9"/>
+      <c r="L159" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M159" s="5"/>
@@ -10134,22 +10140,22 @@
       <c r="B160" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C160" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
-      <c r="I160" s="8"/>
-      <c r="J160" s="8" t="s">
+      <c r="C160" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="9"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="K160" s="8" t="s">
+      <c r="K160" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="L160" s="9" t="s">
+      <c r="L160" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M160" s="5"/>
@@ -10167,27 +10173,27 @@
       <c r="A161" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C161" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D161" s="8" t="s">
+      <c r="C161" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D161" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8" t="s">
+      <c r="E161" s="9"/>
+      <c r="F161" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G161" s="8"/>
-      <c r="H161" s="8"/>
-      <c r="I161" s="8"/>
-      <c r="J161" s="8" t="s">
+      <c r="G161" s="9"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K161" s="8"/>
-      <c r="L161" s="9" t="s">
+      <c r="K161" s="9"/>
+      <c r="L161" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M161" s="5"/>
@@ -10205,33 +10211,33 @@
       <c r="A162" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C162" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D162" s="8" t="s">
+      <c r="C162" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D162" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E162" s="8" t="s">
+      <c r="E162" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F162" s="8" t="s">
+      <c r="F162" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G162" s="8" t="s">
+      <c r="G162" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="H162" s="8"/>
-      <c r="I162" s="8" t="s">
+      <c r="H162" s="9"/>
+      <c r="I162" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="J162" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K162" s="8"/>
-      <c r="L162" s="9" t="s">
+      <c r="J162" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K162" s="9"/>
+      <c r="L162" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M162" s="5"/>
@@ -10249,27 +10255,27 @@
       <c r="A163" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="B163" s="8" t="s">
+      <c r="B163" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C163" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D163" s="8" t="s">
+      <c r="C163" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D163" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E163" s="8"/>
-      <c r="F163" s="8" t="s">
+      <c r="E163" s="9"/>
+      <c r="F163" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G163" s="8"/>
-      <c r="H163" s="8"/>
-      <c r="I163" s="8"/>
-      <c r="J163" s="8" t="s">
+      <c r="G163" s="9"/>
+      <c r="H163" s="9"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K163" s="8"/>
-      <c r="L163" s="9" t="s">
+      <c r="K163" s="9"/>
+      <c r="L163" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M163" s="5"/>
@@ -10287,33 +10293,33 @@
       <c r="A164" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C164" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D164" s="8" t="s">
+      <c r="C164" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D164" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E164" s="8" t="s">
+      <c r="E164" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F164" s="8" t="s">
+      <c r="F164" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G164" s="8" t="s">
+      <c r="G164" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="H164" s="8"/>
-      <c r="I164" s="8" t="s">
+      <c r="H164" s="9"/>
+      <c r="I164" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="J164" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K164" s="8"/>
-      <c r="L164" s="9" t="s">
+      <c r="J164" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K164" s="9"/>
+      <c r="L164" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M164" s="5"/>
@@ -10331,31 +10337,31 @@
       <c r="A165" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C165" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D165" s="8" t="s">
+      <c r="C165" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D165" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E165" s="8" t="s">
+      <c r="E165" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F165" s="8"/>
-      <c r="G165" s="8" t="s">
+      <c r="F165" s="9"/>
+      <c r="G165" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="H165" s="8"/>
-      <c r="I165" s="8" t="s">
+      <c r="H165" s="9"/>
+      <c r="I165" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="J165" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K165" s="8"/>
-      <c r="L165" s="9" t="s">
+      <c r="J165" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K165" s="9"/>
+      <c r="L165" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M165" s="5"/>
@@ -10376,26 +10382,26 @@
       <c r="B166" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C166" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D166" s="8" t="s">
+      <c r="C166" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D166" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8" t="s">
+      <c r="E166" s="9"/>
+      <c r="F166" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
-      <c r="I166" s="8"/>
-      <c r="J166" s="8" t="s">
+      <c r="G166" s="9"/>
+      <c r="H166" s="9"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="K166" s="8" t="s">
+      <c r="K166" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="L166" s="9" t="s">
+      <c r="L166" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M166" s="5"/>
@@ -10413,33 +10419,33 @@
       <c r="A167" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="B167" s="8" t="s">
+      <c r="B167" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C167" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D167" s="8" t="s">
+      <c r="C167" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D167" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E167" s="8" t="s">
+      <c r="E167" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F167" s="8" t="s">
+      <c r="F167" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G167" s="8" t="s">
+      <c r="G167" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="H167" s="8"/>
-      <c r="I167" s="8" t="s">
+      <c r="H167" s="9"/>
+      <c r="I167" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="J167" s="8" t="s">
+      <c r="J167" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="K167" s="8"/>
-      <c r="L167" s="9" t="s">
+      <c r="K167" s="9"/>
+      <c r="L167" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M167" s="5"/>
@@ -10457,31 +10463,31 @@
       <c r="A168" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C168" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D168" s="8" t="s">
+      <c r="C168" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D168" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E168" s="8" t="s">
+      <c r="E168" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F168" s="8"/>
-      <c r="G168" s="8" t="s">
+      <c r="F168" s="9"/>
+      <c r="G168" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="H168" s="8"/>
-      <c r="I168" s="8" t="s">
+      <c r="H168" s="9"/>
+      <c r="I168" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="J168" s="8" t="s">
+      <c r="J168" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="K168" s="8"/>
-      <c r="L168" s="9" t="s">
+      <c r="K168" s="9"/>
+      <c r="L168" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M168" s="5"/>
@@ -10499,31 +10505,31 @@
       <c r="A169" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C169" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D169" s="8" t="s">
+      <c r="C169" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D169" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E169" s="8" t="s">
+      <c r="E169" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F169" s="8"/>
-      <c r="G169" s="8" t="s">
+      <c r="F169" s="9"/>
+      <c r="G169" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="H169" s="8"/>
-      <c r="I169" s="8" t="s">
+      <c r="H169" s="9"/>
+      <c r="I169" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="J169" s="8" t="s">
+      <c r="J169" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="K169" s="8"/>
-      <c r="L169" s="9" t="s">
+      <c r="K169" s="9"/>
+      <c r="L169" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M169" s="5"/>
@@ -10541,31 +10547,31 @@
       <c r="A170" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C170" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D170" s="8" t="s">
+      <c r="C170" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D170" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E170" s="8" t="s">
+      <c r="E170" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8" t="s">
+      <c r="F170" s="9"/>
+      <c r="G170" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="H170" s="8"/>
-      <c r="I170" s="8" t="s">
+      <c r="H170" s="9"/>
+      <c r="I170" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="J170" s="8" t="s">
+      <c r="J170" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="K170" s="8"/>
-      <c r="L170" s="9" t="s">
+      <c r="K170" s="9"/>
+      <c r="L170" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M170" s="5"/>
@@ -10586,22 +10592,22 @@
       <c r="B171" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C171" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
-      <c r="F171" s="8"/>
-      <c r="G171" s="8"/>
-      <c r="H171" s="8"/>
-      <c r="I171" s="8"/>
-      <c r="J171" s="8" t="s">
+      <c r="C171" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="9"/>
+      <c r="H171" s="9"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="K171" s="8" t="s">
+      <c r="K171" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="L171" s="9" t="s">
+      <c r="L171" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M171" s="5"/>
@@ -10619,27 +10625,27 @@
       <c r="A172" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C172" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D172" s="8" t="s">
+      <c r="C172" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D172" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E172" s="8"/>
-      <c r="F172" s="8" t="s">
+      <c r="E172" s="9"/>
+      <c r="F172" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G172" s="8"/>
-      <c r="H172" s="8"/>
-      <c r="I172" s="8"/>
-      <c r="J172" s="8" t="s">
+      <c r="G172" s="9"/>
+      <c r="H172" s="9"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K172" s="8"/>
-      <c r="L172" s="9" t="s">
+      <c r="K172" s="9"/>
+      <c r="L172" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M172" s="5"/>
@@ -10657,33 +10663,33 @@
       <c r="A173" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="B173" s="8" t="s">
+      <c r="B173" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C173" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D173" s="8" t="s">
+      <c r="C173" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D173" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E173" s="8" t="s">
+      <c r="E173" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F173" s="8" t="s">
+      <c r="F173" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G173" s="8" t="s">
+      <c r="G173" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="H173" s="8"/>
-      <c r="I173" s="8" t="s">
+      <c r="H173" s="9"/>
+      <c r="I173" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J173" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K173" s="8"/>
-      <c r="L173" s="9" t="s">
+      <c r="J173" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K173" s="9"/>
+      <c r="L173" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M173" s="5"/>
@@ -10701,33 +10707,33 @@
       <c r="A174" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C174" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D174" s="8" t="s">
+      <c r="C174" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D174" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E174" s="8" t="s">
+      <c r="E174" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F174" s="8" t="s">
+      <c r="F174" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="G174" s="8" t="s">
+      <c r="G174" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="H174" s="8"/>
-      <c r="I174" s="8" t="s">
+      <c r="H174" s="9"/>
+      <c r="I174" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="J174" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K174" s="8"/>
-      <c r="L174" s="9" t="s">
+      <c r="J174" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K174" s="9"/>
+      <c r="L174" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M174" s="5"/>
@@ -10745,31 +10751,31 @@
       <c r="A175" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="B175" s="8" t="s">
+      <c r="B175" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C175" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D175" s="8" t="s">
+      <c r="C175" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D175" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E175" s="8" t="s">
+      <c r="E175" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F175" s="8"/>
-      <c r="G175" s="8" t="s">
+      <c r="F175" s="9"/>
+      <c r="G175" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="H175" s="8"/>
-      <c r="I175" s="8" t="s">
+      <c r="H175" s="9"/>
+      <c r="I175" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="J175" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K175" s="8"/>
-      <c r="L175" s="9" t="s">
+      <c r="J175" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K175" s="9"/>
+      <c r="L175" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M175" s="5"/>
@@ -10784,21 +10790,21 @@
       <c r="V175" s="5"/>
     </row>
     <row r="176" spans="1:22">
-      <c r="A176" s="5" t="s">
+      <c r="A176" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D176" s="5"/>
-      <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="5"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
       <c r="J176" s="6" t="s">
         <v>343</v>
       </c>
@@ -10808,18 +10814,18 @@
       <c r="L176" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="M176" s="5" t="s">
+      <c r="M176" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N176" s="5" t="s">
+      <c r="N176" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O176" s="5"/>
-      <c r="P176" s="5"/>
-      <c r="Q176" s="5"/>
-      <c r="R176" s="5"/>
-      <c r="S176" s="5"/>
-      <c r="T176" s="5"/>
+      <c r="O176" s="2"/>
+      <c r="P176" s="2"/>
+      <c r="Q176" s="2"/>
+      <c r="R176" s="2"/>
+      <c r="S176" s="2"/>
+      <c r="T176" s="2"/>
       <c r="U176" s="6" t="s">
         <v>454</v>
       </c>
@@ -10942,24 +10948,24 @@
       <c r="B179" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C179" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D179" s="8" t="s">
+      <c r="D179" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E179" s="8"/>
-      <c r="F179" s="8" t="s">
+      <c r="E179" s="9"/>
+      <c r="F179" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G179" s="8"/>
-      <c r="H179" s="8"/>
-      <c r="I179" s="8"/>
-      <c r="J179" s="8" t="s">
+      <c r="G179" s="9"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K179" s="8"/>
-      <c r="L179" s="9" t="s">
+      <c r="K179" s="9"/>
+      <c r="L179" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M179" s="5"/>
@@ -10977,33 +10983,33 @@
       <c r="A180" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="B180" s="8" t="s">
+      <c r="B180" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C180" s="8" t="s">
+      <c r="C180" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D180" s="8" t="s">
+      <c r="D180" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E180" s="8" t="s">
+      <c r="E180" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F180" s="8" t="s">
+      <c r="F180" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G180" s="8" t="s">
+      <c r="G180" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="H180" s="8"/>
-      <c r="I180" s="8" t="s">
+      <c r="H180" s="9"/>
+      <c r="I180" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J180" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K180" s="8"/>
-      <c r="L180" s="9" t="s">
+      <c r="J180" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K180" s="9"/>
+      <c r="L180" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M180" s="5"/>
@@ -11021,33 +11027,33 @@
       <c r="A181" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C181" s="8" t="s">
+      <c r="C181" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D181" s="8" t="s">
+      <c r="D181" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E181" s="8" t="s">
+      <c r="E181" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F181" s="8" t="s">
+      <c r="F181" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
-      <c r="I181" s="8" t="s">
+      <c r="G181" s="9"/>
+      <c r="H181" s="9"/>
+      <c r="I181" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="J181" s="8" t="s">
+      <c r="J181" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="K181" s="8" t="s">
+      <c r="K181" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="L181" s="9" t="s">
+      <c r="L181" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M181" s="5"/>
@@ -11075,33 +11081,33 @@
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
       <c r="K182" s="5"/>
-      <c r="L182" s="10" t="s">
+      <c r="L182" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M182" s="11" t="s">
+      <c r="M182" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="N182" s="11" t="s">
+      <c r="N182" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O182" s="11" t="s">
+      <c r="O182" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P182" s="11" t="s">
+      <c r="P182" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="Q182" s="11" t="s">
+      <c r="Q182" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="R182" s="11"/>
-      <c r="S182" s="11"/>
-      <c r="T182" s="11" t="s">
+      <c r="R182" s="13"/>
+      <c r="S182" s="13"/>
+      <c r="T182" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="U182" s="11" t="s">
+      <c r="U182" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="V182" s="11" t="s">
+      <c r="V182" s="13" t="s">
         <v>471</v>
       </c>
     </row>
@@ -11126,7 +11132,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -11491,25 +11497,25 @@
       <c r="I190" s="5"/>
       <c r="J190" s="5"/>
       <c r="K190" s="5"/>
-      <c r="L190" s="10" t="s">
+      <c r="L190" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M190" s="11" t="s">
+      <c r="M190" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="N190" s="11" t="s">
+      <c r="N190" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O190" s="11"/>
-      <c r="P190" s="11"/>
-      <c r="Q190" s="11"/>
-      <c r="R190" s="11"/>
-      <c r="S190" s="11"/>
-      <c r="T190" s="11"/>
-      <c r="U190" s="11" t="s">
+      <c r="O190" s="13"/>
+      <c r="P190" s="13"/>
+      <c r="Q190" s="13"/>
+      <c r="R190" s="13"/>
+      <c r="S190" s="13"/>
+      <c r="T190" s="13"/>
+      <c r="U190" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="V190" s="11" t="s">
+      <c r="V190" s="13" t="s">
         <v>472</v>
       </c>
     </row>
@@ -11527,29 +11533,29 @@
       <c r="I191" s="5"/>
       <c r="J191" s="5"/>
       <c r="K191" s="5"/>
-      <c r="L191" s="10" t="s">
+      <c r="L191" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M191" s="11" t="s">
+      <c r="M191" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N191" s="11" t="s">
+      <c r="N191" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O191" s="11" t="s">
+      <c r="O191" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P191" s="11"/>
-      <c r="Q191" s="11" t="s">
+      <c r="P191" s="13"/>
+      <c r="Q191" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="R191" s="11"/>
-      <c r="S191" s="11"/>
-      <c r="T191" s="11"/>
-      <c r="U191" s="11" t="s">
+      <c r="R191" s="13"/>
+      <c r="S191" s="13"/>
+      <c r="T191" s="13"/>
+      <c r="U191" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="V191" s="11"/>
+      <c r="V191" s="13"/>
     </row>
     <row r="192" spans="1:22">
       <c r="A192" s="5" t="s">
@@ -11565,35 +11571,35 @@
       <c r="I192" s="5"/>
       <c r="J192" s="5"/>
       <c r="K192" s="5"/>
-      <c r="L192" s="10" t="s">
+      <c r="L192" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M192" s="11" t="s">
+      <c r="M192" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N192" s="11" t="s">
+      <c r="N192" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O192" s="11" t="s">
+      <c r="O192" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P192" s="11" t="s">
+      <c r="P192" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="Q192" s="11" t="s">
+      <c r="Q192" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="R192" s="11" t="s">
+      <c r="R192" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="S192" s="11"/>
-      <c r="T192" s="11" t="s">
+      <c r="S192" s="13"/>
+      <c r="T192" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="U192" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V192" s="11"/>
+      <c r="U192" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="V192" s="13"/>
     </row>
     <row r="193" spans="1:22">
       <c r="A193" s="5" t="s">
@@ -11609,33 +11615,33 @@
       <c r="I193" s="5"/>
       <c r="J193" s="5"/>
       <c r="K193" s="5"/>
-      <c r="L193" s="10" t="s">
+      <c r="L193" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M193" s="11" t="s">
+      <c r="M193" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N193" s="11" t="s">
+      <c r="N193" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O193" s="11" t="s">
+      <c r="O193" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="P193" s="11" t="s">
+      <c r="P193" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="Q193" s="11" t="s">
+      <c r="Q193" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="R193" s="11"/>
-      <c r="S193" s="11"/>
-      <c r="T193" s="11" t="s">
+      <c r="R193" s="13"/>
+      <c r="S193" s="13"/>
+      <c r="T193" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="U193" s="11" t="s">
+      <c r="U193" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="V193" s="11" t="s">
+      <c r="V193" s="13" t="s">
         <v>471</v>
       </c>
     </row>
@@ -11653,25 +11659,25 @@
       <c r="I194" s="5"/>
       <c r="J194" s="5"/>
       <c r="K194" s="5"/>
-      <c r="L194" s="10" t="s">
+      <c r="L194" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M194" s="11" t="s">
+      <c r="M194" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="N194" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O194" s="11"/>
-      <c r="P194" s="11"/>
-      <c r="Q194" s="11"/>
-      <c r="R194" s="11"/>
-      <c r="S194" s="11"/>
-      <c r="T194" s="11"/>
-      <c r="U194" s="11" t="s">
+      <c r="N194" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O194" s="13"/>
+      <c r="P194" s="13"/>
+      <c r="Q194" s="13"/>
+      <c r="R194" s="13"/>
+      <c r="S194" s="13"/>
+      <c r="T194" s="13"/>
+      <c r="U194" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="V194" s="11"/>
+      <c r="V194" s="13"/>
     </row>
     <row r="195" spans="1:22">
       <c r="A195" s="5" t="s">
@@ -11687,29 +11693,29 @@
       <c r="I195" s="5"/>
       <c r="J195" s="5"/>
       <c r="K195" s="5"/>
-      <c r="L195" s="10" t="s">
+      <c r="L195" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M195" s="11" t="s">
+      <c r="M195" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N195" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O195" s="11" t="s">
+      <c r="N195" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O195" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="P195" s="11"/>
-      <c r="Q195" s="11" t="s">
+      <c r="P195" s="13"/>
+      <c r="Q195" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="R195" s="11"/>
-      <c r="S195" s="11"/>
-      <c r="T195" s="11"/>
-      <c r="U195" s="11" t="s">
+      <c r="R195" s="13"/>
+      <c r="S195" s="13"/>
+      <c r="T195" s="13"/>
+      <c r="U195" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="V195" s="11"/>
+      <c r="V195" s="13"/>
     </row>
     <row r="196" spans="1:22">
       <c r="A196" s="5" t="s">
@@ -11725,35 +11731,35 @@
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
       <c r="K196" s="5"/>
-      <c r="L196" s="10" t="s">
+      <c r="L196" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M196" s="11" t="s">
+      <c r="M196" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N196" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O196" s="11" t="s">
+      <c r="N196" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O196" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="P196" s="11" t="s">
+      <c r="P196" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="Q196" s="11" t="s">
+      <c r="Q196" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="R196" s="11" t="s">
+      <c r="R196" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="S196" s="11"/>
-      <c r="T196" s="11" t="s">
+      <c r="S196" s="13"/>
+      <c r="T196" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="U196" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V196" s="11"/>
+      <c r="U196" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="V196" s="13"/>
     </row>
     <row r="197" spans="1:22">
       <c r="A197" s="5" t="s">
@@ -11769,29 +11775,29 @@
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
       <c r="K197" s="5"/>
-      <c r="L197" s="10" t="s">
+      <c r="L197" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M197" s="11" t="s">
+      <c r="M197" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N197" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O197" s="11" t="s">
+      <c r="N197" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O197" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="P197" s="11"/>
-      <c r="Q197" s="11" t="s">
+      <c r="P197" s="13"/>
+      <c r="Q197" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="R197" s="11"/>
-      <c r="S197" s="11"/>
-      <c r="T197" s="11"/>
-      <c r="U197" s="11" t="s">
+      <c r="R197" s="13"/>
+      <c r="S197" s="13"/>
+      <c r="T197" s="13"/>
+      <c r="U197" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="V197" s="11"/>
+      <c r="V197" s="13"/>
     </row>
     <row r="198" spans="1:22">
       <c r="A198" s="5" t="s">
@@ -11807,42 +11813,42 @@
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
       <c r="K198" s="5"/>
-      <c r="L198" s="10" t="s">
+      <c r="L198" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M198" s="11" t="s">
+      <c r="M198" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="N198" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="O198" s="11" t="s">
+      <c r="N198" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O198" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="P198" s="11" t="s">
+      <c r="P198" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="Q198" s="11" t="s">
+      <c r="Q198" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="R198" s="11"/>
-      <c r="S198" s="11"/>
-      <c r="T198" s="11" t="s">
+      <c r="R198" s="13"/>
+      <c r="S198" s="13"/>
+      <c r="T198" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="U198" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V198" s="11"/>
+      <c r="U198" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="V198" s="13"/>
     </row>
     <row r="199" spans="1:22">
-      <c r="A199" s="5" t="s">
+      <c r="A199" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="B199" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="C199" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D199" s="6" t="s">
@@ -11854,34 +11860,34 @@
       <c r="F199" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
       <c r="I199" s="6" t="s">
         <v>304</v>
       </c>
       <c r="J199" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="K199" s="5"/>
+      <c r="K199" s="2"/>
       <c r="L199" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="M199" s="5" t="s">
+      <c r="M199" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N199" s="5" t="s">
+      <c r="N199" s="2" t="s">
         <v>65</v>
       </c>
       <c r="O199" s="6"/>
       <c r="P199" s="6"/>
       <c r="Q199" s="6"/>
-      <c r="R199" s="5"/>
-      <c r="S199" s="5"/>
+      <c r="R199" s="2"/>
+      <c r="S199" s="2"/>
       <c r="T199" s="6"/>
       <c r="U199" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="V199" s="5"/>
+      <c r="V199" s="2"/>
     </row>
     <row r="200" spans="1:22">
       <c r="A200" s="5" t="s">
@@ -11890,22 +11896,22 @@
       <c r="B200" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C200" s="8" t="s">
+      <c r="C200" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D200" s="8"/>
-      <c r="E200" s="8"/>
-      <c r="F200" s="8"/>
-      <c r="G200" s="8"/>
-      <c r="H200" s="8"/>
-      <c r="I200" s="8"/>
-      <c r="J200" s="8" t="s">
+      <c r="D200" s="9"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+      <c r="H200" s="9"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="K200" s="8" t="s">
+      <c r="K200" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="L200" s="9" t="s">
+      <c r="L200" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M200" s="5"/>
@@ -11923,27 +11929,27 @@
       <c r="A201" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B201" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C201" s="8" t="s">
+      <c r="C201" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D201" s="8" t="s">
+      <c r="D201" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E201" s="8"/>
-      <c r="F201" s="8" t="s">
+      <c r="E201" s="9"/>
+      <c r="F201" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G201" s="8"/>
-      <c r="H201" s="8"/>
-      <c r="I201" s="8"/>
-      <c r="J201" s="8" t="s">
+      <c r="G201" s="9"/>
+      <c r="H201" s="9"/>
+      <c r="I201" s="9"/>
+      <c r="J201" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K201" s="8"/>
-      <c r="L201" s="9" t="s">
+      <c r="K201" s="9"/>
+      <c r="L201" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M201" s="5"/>
@@ -11961,33 +11967,33 @@
       <c r="A202" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C202" s="8" t="s">
+      <c r="C202" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D202" s="8" t="s">
+      <c r="D202" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E202" s="8" t="s">
+      <c r="E202" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F202" s="8" t="s">
+      <c r="F202" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G202" s="8" t="s">
+      <c r="G202" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="H202" s="8"/>
-      <c r="I202" s="8" t="s">
+      <c r="H202" s="9"/>
+      <c r="I202" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J202" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K202" s="8"/>
-      <c r="L202" s="9" t="s">
+      <c r="J202" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K202" s="9"/>
+      <c r="L202" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M202" s="5"/>
@@ -12008,24 +12014,24 @@
       <c r="B203" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C203" s="8" t="s">
+      <c r="C203" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D203" s="8" t="s">
+      <c r="D203" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E203" s="8"/>
-      <c r="F203" s="8" t="s">
+      <c r="E203" s="9"/>
+      <c r="F203" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G203" s="8"/>
-      <c r="H203" s="8"/>
-      <c r="I203" s="8"/>
-      <c r="J203" s="8" t="s">
+      <c r="G203" s="9"/>
+      <c r="H203" s="9"/>
+      <c r="I203" s="9"/>
+      <c r="J203" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K203" s="8"/>
-      <c r="L203" s="9" t="s">
+      <c r="K203" s="9"/>
+      <c r="L203" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M203" s="5"/>
@@ -12043,33 +12049,33 @@
       <c r="A204" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C204" s="8" t="s">
+      <c r="C204" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D204" s="8" t="s">
+      <c r="D204" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E204" s="8" t="s">
+      <c r="E204" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F204" s="8" t="s">
+      <c r="F204" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G204" s="8" t="s">
+      <c r="G204" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="H204" s="8"/>
-      <c r="I204" s="8" t="s">
+      <c r="H204" s="9"/>
+      <c r="I204" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J204" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K204" s="8"/>
-      <c r="L204" s="9" t="s">
+      <c r="J204" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K204" s="9"/>
+      <c r="L204" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M204" s="5"/>
@@ -12087,33 +12093,33 @@
       <c r="A205" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="B205" s="8" t="s">
+      <c r="B205" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C205" s="8" t="s">
+      <c r="C205" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D205" s="8" t="s">
+      <c r="D205" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E205" s="8" t="s">
+      <c r="E205" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F205" s="8" t="s">
+      <c r="F205" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="G205" s="8"/>
-      <c r="H205" s="8"/>
-      <c r="I205" s="8" t="s">
+      <c r="G205" s="9"/>
+      <c r="H205" s="9"/>
+      <c r="I205" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="J205" s="8" t="s">
+      <c r="J205" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="K205" s="8" t="s">
+      <c r="K205" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="L205" s="9" t="s">
+      <c r="L205" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M205" s="5"/>
@@ -12134,20 +12140,20 @@
       <c r="B206" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C206" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
-      <c r="F206" s="8"/>
-      <c r="G206" s="8"/>
-      <c r="H206" s="8"/>
-      <c r="I206" s="8"/>
-      <c r="J206" s="8" t="s">
+      <c r="C206" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D206" s="9"/>
+      <c r="E206" s="9"/>
+      <c r="F206" s="9"/>
+      <c r="G206" s="9"/>
+      <c r="H206" s="9"/>
+      <c r="I206" s="9"/>
+      <c r="J206" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K206" s="8"/>
-      <c r="L206" s="9" t="s">
+      <c r="K206" s="9"/>
+      <c r="L206" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M206" s="5"/>
@@ -12165,27 +12171,27 @@
       <c r="A207" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="B207" s="8" t="s">
+      <c r="B207" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C207" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D207" s="8" t="s">
+      <c r="C207" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D207" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E207" s="8"/>
-      <c r="F207" s="8" t="s">
+      <c r="E207" s="9"/>
+      <c r="F207" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G207" s="8"/>
-      <c r="H207" s="8"/>
-      <c r="I207" s="8"/>
-      <c r="J207" s="8" t="s">
+      <c r="G207" s="9"/>
+      <c r="H207" s="9"/>
+      <c r="I207" s="9"/>
+      <c r="J207" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K207" s="8"/>
-      <c r="L207" s="9" t="s">
+      <c r="K207" s="9"/>
+      <c r="L207" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M207" s="5"/>
@@ -12203,33 +12209,33 @@
       <c r="A208" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="B208" s="8" t="s">
+      <c r="B208" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C208" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D208" s="8" t="s">
+      <c r="C208" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D208" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E208" s="8" t="s">
+      <c r="E208" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F208" s="8" t="s">
+      <c r="F208" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="G208" s="8" t="s">
+      <c r="G208" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="H208" s="8"/>
-      <c r="I208" s="8" t="s">
+      <c r="H208" s="9"/>
+      <c r="I208" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="J208" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K208" s="8"/>
-      <c r="L208" s="9" t="s">
+      <c r="J208" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K208" s="9"/>
+      <c r="L208" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M208" s="5"/>
@@ -12247,27 +12253,27 @@
       <c r="A209" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C209" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D209" s="8" t="s">
+      <c r="C209" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D209" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E209" s="8"/>
-      <c r="F209" s="8" t="s">
+      <c r="E209" s="9"/>
+      <c r="F209" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G209" s="8"/>
-      <c r="H209" s="8"/>
-      <c r="I209" s="8"/>
-      <c r="J209" s="8" t="s">
+      <c r="G209" s="9"/>
+      <c r="H209" s="9"/>
+      <c r="I209" s="9"/>
+      <c r="J209" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K209" s="8"/>
-      <c r="L209" s="9" t="s">
+      <c r="K209" s="9"/>
+      <c r="L209" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M209" s="5"/>
@@ -12285,31 +12291,31 @@
       <c r="A210" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="B210" s="8" t="s">
+      <c r="B210" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C210" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D210" s="8" t="s">
+      <c r="C210" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D210" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E210" s="8" t="s">
+      <c r="E210" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F210" s="8" t="s">
+      <c r="F210" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G210" s="8"/>
-      <c r="H210" s="8"/>
-      <c r="I210" s="8" t="s">
+      <c r="G210" s="9"/>
+      <c r="H210" s="9"/>
+      <c r="I210" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="J210" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K210" s="8"/>
-      <c r="L210" s="9" t="s">
+      <c r="J210" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K210" s="9"/>
+      <c r="L210" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M210" s="5"/>
@@ -12324,48 +12330,48 @@
       <c r="V210" s="5"/>
     </row>
     <row r="211" spans="1:22">
-      <c r="A211" s="5" t="s">
+      <c r="A211" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="B211" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C211" s="5" t="s">
+      <c r="C211" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D211" s="6"/>
-      <c r="E211" s="5"/>
+      <c r="E211" s="2"/>
       <c r="F211" s="6"/>
-      <c r="G211" s="5"/>
-      <c r="H211" s="5"/>
-      <c r="I211" s="5"/>
-      <c r="J211" s="5" t="s">
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="K211" s="5"/>
+      <c r="K211" s="2"/>
       <c r="L211" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="M211" s="5" t="s">
+      <c r="M211" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N211" s="5" t="s">
+      <c r="N211" s="2" t="s">
         <v>65</v>
       </c>
       <c r="O211" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="P211" s="5"/>
+      <c r="P211" s="2"/>
       <c r="Q211" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="R211" s="5"/>
-      <c r="S211" s="5"/>
-      <c r="T211" s="5"/>
-      <c r="U211" s="5" t="s">
+      <c r="R211" s="2"/>
+      <c r="S211" s="2"/>
+      <c r="T211" s="2"/>
+      <c r="U211" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="V211" s="5"/>
+      <c r="V211" s="2"/>
     </row>
     <row r="212" spans="1:22">
       <c r="A212" s="5" t="s">
@@ -12653,27 +12659,27 @@
       <c r="A217" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="B217" s="8" t="s">
+      <c r="B217" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C217" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D217" s="8" t="s">
+      <c r="C217" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D217" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E217" s="8"/>
-      <c r="F217" s="8" t="s">
+      <c r="E217" s="9"/>
+      <c r="F217" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="G217" s="8"/>
-      <c r="H217" s="8"/>
-      <c r="I217" s="8"/>
-      <c r="J217" s="8" t="s">
+      <c r="G217" s="9"/>
+      <c r="H217" s="9"/>
+      <c r="I217" s="9"/>
+      <c r="J217" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K217" s="8"/>
-      <c r="L217" s="9" t="s">
+      <c r="K217" s="9"/>
+      <c r="L217" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M217" s="5"/>
@@ -12691,31 +12697,31 @@
       <c r="A218" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="B218" s="8" t="s">
+      <c r="B218" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C218" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D218" s="8" t="s">
+      <c r="C218" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D218" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E218" s="8" t="s">
+      <c r="E218" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F218" s="8" t="s">
+      <c r="F218" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="G218" s="8"/>
-      <c r="H218" s="8"/>
-      <c r="I218" s="8" t="s">
+      <c r="G218" s="9"/>
+      <c r="H218" s="9"/>
+      <c r="I218" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="J218" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K218" s="8"/>
-      <c r="L218" s="9" t="s">
+      <c r="J218" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K218" s="9"/>
+      <c r="L218" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M218" s="5"/>
@@ -12730,41 +12736,41 @@
       <c r="V218" s="5"/>
     </row>
     <row r="219" spans="1:22">
-      <c r="A219" s="5" t="s">
+      <c r="A219" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="B219" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C219" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D219" s="5"/>
-      <c r="E219" s="5"/>
-      <c r="F219" s="5"/>
-      <c r="G219" s="5"/>
-      <c r="H219" s="5"/>
-      <c r="I219" s="5"/>
-      <c r="J219" s="5" t="s">
+      <c r="C219" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+      <c r="J219" s="2" t="s">
         <v>315</v>
       </c>
       <c r="K219" s="6"/>
       <c r="L219" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="M219" s="5" t="s">
+      <c r="M219" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N219" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O219" s="5"/>
-      <c r="P219" s="5"/>
-      <c r="Q219" s="5"/>
-      <c r="R219" s="5"/>
-      <c r="S219" s="5"/>
-      <c r="T219" s="5"/>
-      <c r="U219" s="5" t="s">
+      <c r="N219" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O219" s="2"/>
+      <c r="P219" s="2"/>
+      <c r="Q219" s="2"/>
+      <c r="R219" s="2"/>
+      <c r="S219" s="2"/>
+      <c r="T219" s="2"/>
+      <c r="U219" s="2" t="s">
         <v>315</v>
       </c>
       <c r="V219" s="6" t="s">
@@ -13170,22 +13176,22 @@
       <c r="B227" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C227" s="8" t="s">
+      <c r="C227" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D227" s="8"/>
-      <c r="E227" s="8"/>
-      <c r="F227" s="8"/>
-      <c r="G227" s="8"/>
-      <c r="H227" s="8"/>
-      <c r="I227" s="8"/>
-      <c r="J227" s="8" t="s">
+      <c r="D227" s="9"/>
+      <c r="E227" s="9"/>
+      <c r="F227" s="9"/>
+      <c r="G227" s="9"/>
+      <c r="H227" s="9"/>
+      <c r="I227" s="9"/>
+      <c r="J227" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="K227" s="8" t="s">
+      <c r="K227" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="L227" s="9" t="s">
+      <c r="L227" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M227" s="5"/>
@@ -13203,27 +13209,27 @@
       <c r="A228" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="B228" s="8" t="s">
+      <c r="B228" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C228" s="8" t="s">
+      <c r="C228" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D228" s="8" t="s">
+      <c r="D228" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E228" s="8"/>
-      <c r="F228" s="8" t="s">
+      <c r="E228" s="9"/>
+      <c r="F228" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G228" s="8"/>
-      <c r="H228" s="8"/>
-      <c r="I228" s="8"/>
-      <c r="J228" s="8" t="s">
+      <c r="G228" s="9"/>
+      <c r="H228" s="9"/>
+      <c r="I228" s="9"/>
+      <c r="J228" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K228" s="8"/>
-      <c r="L228" s="9" t="s">
+      <c r="K228" s="9"/>
+      <c r="L228" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M228" s="5"/>
@@ -13241,33 +13247,33 @@
       <c r="A229" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="B229" s="8" t="s">
+      <c r="B229" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C229" s="8" t="s">
+      <c r="C229" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D229" s="8" t="s">
+      <c r="D229" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E229" s="8" t="s">
+      <c r="E229" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F229" s="8" t="s">
+      <c r="F229" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="G229" s="8" t="s">
+      <c r="G229" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="H229" s="8"/>
-      <c r="I229" s="8" t="s">
+      <c r="H229" s="9"/>
+      <c r="I229" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="J229" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K229" s="8"/>
-      <c r="L229" s="9" t="s">
+      <c r="J229" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K229" s="9"/>
+      <c r="L229" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M229" s="5"/>
@@ -13288,24 +13294,24 @@
       <c r="B230" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C230" s="8" t="s">
+      <c r="C230" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D230" s="8" t="s">
+      <c r="D230" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E230" s="8"/>
-      <c r="F230" s="8" t="s">
+      <c r="E230" s="9"/>
+      <c r="F230" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="G230" s="8"/>
-      <c r="H230" s="8"/>
-      <c r="I230" s="8"/>
-      <c r="J230" s="8" t="s">
+      <c r="G230" s="9"/>
+      <c r="H230" s="9"/>
+      <c r="I230" s="9"/>
+      <c r="J230" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K230" s="8"/>
-      <c r="L230" s="9" t="s">
+      <c r="K230" s="9"/>
+      <c r="L230" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M230" s="5"/>
@@ -13323,33 +13329,33 @@
       <c r="A231" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="B231" s="8" t="s">
+      <c r="B231" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C231" s="8" t="s">
+      <c r="C231" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D231" s="8" t="s">
+      <c r="D231" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E231" s="8" t="s">
+      <c r="E231" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F231" s="8" t="s">
+      <c r="F231" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="G231" s="8" t="s">
+      <c r="G231" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="H231" s="8"/>
-      <c r="I231" s="8" t="s">
+      <c r="H231" s="9"/>
+      <c r="I231" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J231" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K231" s="8"/>
-      <c r="L231" s="9" t="s">
+      <c r="J231" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K231" s="9"/>
+      <c r="L231" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M231" s="5"/>
@@ -13367,33 +13373,33 @@
       <c r="A232" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="B232" s="8" t="s">
+      <c r="B232" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C232" s="8" t="s">
+      <c r="C232" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D232" s="8" t="s">
+      <c r="D232" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E232" s="8" t="s">
+      <c r="E232" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F232" s="8" t="s">
+      <c r="F232" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="G232" s="8"/>
-      <c r="H232" s="8"/>
-      <c r="I232" s="8" t="s">
+      <c r="G232" s="9"/>
+      <c r="H232" s="9"/>
+      <c r="I232" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="J232" s="8" t="s">
+      <c r="J232" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="K232" s="8" t="s">
+      <c r="K232" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="L232" s="9" t="s">
+      <c r="L232" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M232" s="5"/>
@@ -13414,20 +13420,20 @@
       <c r="B233" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C233" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D233" s="8"/>
-      <c r="E233" s="8"/>
-      <c r="F233" s="8"/>
-      <c r="G233" s="8"/>
-      <c r="H233" s="8"/>
-      <c r="I233" s="8"/>
-      <c r="J233" s="8" t="s">
+      <c r="C233" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D233" s="9"/>
+      <c r="E233" s="9"/>
+      <c r="F233" s="9"/>
+      <c r="G233" s="9"/>
+      <c r="H233" s="9"/>
+      <c r="I233" s="9"/>
+      <c r="J233" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K233" s="8"/>
-      <c r="L233" s="9" t="s">
+      <c r="K233" s="9"/>
+      <c r="L233" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M233" s="5"/>
@@ -13445,27 +13451,27 @@
       <c r="A234" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="B234" s="8" t="s">
+      <c r="B234" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C234" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D234" s="8" t="s">
+      <c r="C234" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D234" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E234" s="8"/>
-      <c r="F234" s="8" t="s">
+      <c r="E234" s="9"/>
+      <c r="F234" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G234" s="8"/>
-      <c r="H234" s="8"/>
-      <c r="I234" s="8"/>
-      <c r="J234" s="8" t="s">
+      <c r="G234" s="9"/>
+      <c r="H234" s="9"/>
+      <c r="I234" s="9"/>
+      <c r="J234" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K234" s="8"/>
-      <c r="L234" s="9" t="s">
+      <c r="K234" s="9"/>
+      <c r="L234" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M234" s="5"/>
@@ -13483,33 +13489,33 @@
       <c r="A235" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="B235" s="8" t="s">
+      <c r="B235" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C235" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D235" s="8" t="s">
+      <c r="C235" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D235" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E235" s="8" t="s">
+      <c r="E235" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F235" s="8" t="s">
+      <c r="F235" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G235" s="8" t="s">
+      <c r="G235" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="H235" s="8"/>
-      <c r="I235" s="8" t="s">
+      <c r="H235" s="9"/>
+      <c r="I235" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="J235" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K235" s="8"/>
-      <c r="L235" s="9" t="s">
+      <c r="J235" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K235" s="9"/>
+      <c r="L235" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M235" s="5"/>
@@ -13527,27 +13533,27 @@
       <c r="A236" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="B236" s="8" t="s">
+      <c r="B236" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C236" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D236" s="8" t="s">
+      <c r="C236" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D236" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E236" s="8"/>
-      <c r="F236" s="8" t="s">
+      <c r="E236" s="9"/>
+      <c r="F236" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G236" s="8"/>
-      <c r="H236" s="8"/>
-      <c r="I236" s="8"/>
-      <c r="J236" s="8" t="s">
+      <c r="G236" s="9"/>
+      <c r="H236" s="9"/>
+      <c r="I236" s="9"/>
+      <c r="J236" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K236" s="8"/>
-      <c r="L236" s="9" t="s">
+      <c r="K236" s="9"/>
+      <c r="L236" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M236" s="5"/>
@@ -13565,31 +13571,31 @@
       <c r="A237" s="5" t="s">
         <v>698</v>
       </c>
-      <c r="B237" s="8" t="s">
+      <c r="B237" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C237" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D237" s="8" t="s">
+      <c r="C237" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D237" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E237" s="8" t="s">
+      <c r="E237" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="F237" s="8" t="s">
+      <c r="F237" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="G237" s="8"/>
-      <c r="H237" s="8"/>
-      <c r="I237" s="8" t="s">
+      <c r="G237" s="9"/>
+      <c r="H237" s="9"/>
+      <c r="I237" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="J237" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K237" s="8"/>
-      <c r="L237" s="9" t="s">
+      <c r="J237" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K237" s="9"/>
+      <c r="L237" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M237" s="5"/>
@@ -13610,22 +13616,22 @@
       <c r="B238" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C238" s="8"/>
-      <c r="D238" s="8" t="s">
+      <c r="C238" s="9"/>
+      <c r="D238" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E238" s="8"/>
-      <c r="F238" s="8" t="s">
+      <c r="E238" s="9"/>
+      <c r="F238" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G238" s="8"/>
-      <c r="H238" s="8"/>
-      <c r="I238" s="8"/>
-      <c r="J238" s="8" t="s">
+      <c r="G238" s="9"/>
+      <c r="H238" s="9"/>
+      <c r="I238" s="9"/>
+      <c r="J238" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="K238" s="8"/>
-      <c r="L238" s="9" t="s">
+      <c r="K238" s="9"/>
+      <c r="L238" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M238" s="5"/>
@@ -13643,29 +13649,29 @@
       <c r="A239" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="B239" s="8" t="s">
+      <c r="B239" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C239" s="8"/>
-      <c r="D239" s="8" t="s">
+      <c r="C239" s="9"/>
+      <c r="D239" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E239" s="8" t="s">
+      <c r="E239" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F239" s="8" t="s">
+      <c r="F239" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G239" s="8"/>
-      <c r="H239" s="8"/>
-      <c r="I239" s="8" t="s">
+      <c r="G239" s="9"/>
+      <c r="H239" s="9"/>
+      <c r="I239" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="J239" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K239" s="8"/>
-      <c r="L239" s="9" t="s">
+      <c r="J239" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K239" s="9"/>
+      <c r="L239" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M239" s="5"/>
@@ -13683,29 +13689,29 @@
       <c r="A240" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="B240" s="8" t="s">
+      <c r="B240" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C240" s="8"/>
-      <c r="D240" s="8" t="s">
+      <c r="C240" s="9"/>
+      <c r="D240" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E240" s="8" t="s">
+      <c r="E240" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F240" s="8" t="s">
+      <c r="F240" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G240" s="8"/>
-      <c r="H240" s="8"/>
-      <c r="I240" s="8" t="s">
+      <c r="G240" s="9"/>
+      <c r="H240" s="9"/>
+      <c r="I240" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="J240" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="K240" s="8"/>
-      <c r="L240" s="9" t="s">
+      <c r="J240" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="K240" s="9"/>
+      <c r="L240" s="10" t="s">
         <v>374</v>
       </c>
       <c r="M240" s="5"/>
@@ -13733,27 +13739,27 @@
       <c r="I241" s="5"/>
       <c r="J241" s="5"/>
       <c r="K241" s="5"/>
-      <c r="L241" s="10" t="s">
+      <c r="L241" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M241" s="11" t="s">
+      <c r="M241" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="N241" s="11"/>
-      <c r="O241" s="11" t="s">
+      <c r="N241" s="13"/>
+      <c r="O241" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="P241" s="11"/>
-      <c r="Q241" s="11" t="s">
+      <c r="P241" s="13"/>
+      <c r="Q241" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="R241" s="11"/>
-      <c r="S241" s="11"/>
-      <c r="T241" s="11"/>
-      <c r="U241" s="11" t="s">
+      <c r="R241" s="13"/>
+      <c r="S241" s="13"/>
+      <c r="T241" s="13"/>
+      <c r="U241" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="V241" s="11"/>
+      <c r="V241" s="13"/>
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="5" t="s">
@@ -13769,31 +13775,31 @@
       <c r="I242" s="5"/>
       <c r="J242" s="5"/>
       <c r="K242" s="5"/>
-      <c r="L242" s="10" t="s">
+      <c r="L242" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M242" s="11" t="s">
+      <c r="M242" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="N242" s="11"/>
-      <c r="O242" s="11" t="s">
+      <c r="N242" s="13"/>
+      <c r="O242" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="P242" s="11" t="s">
+      <c r="P242" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="Q242" s="11" t="s">
+      <c r="Q242" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="R242" s="11"/>
-      <c r="S242" s="11"/>
-      <c r="T242" s="11" t="s">
+      <c r="R242" s="13"/>
+      <c r="S242" s="13"/>
+      <c r="T242" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="U242" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V242" s="11"/>
+      <c r="U242" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="V242" s="13"/>
     </row>
     <row r="243" spans="1:22">
       <c r="A243" s="5" t="s">
@@ -13809,31 +13815,31 @@
       <c r="I243" s="5"/>
       <c r="J243" s="5"/>
       <c r="K243" s="5"/>
-      <c r="L243" s="10" t="s">
+      <c r="L243" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="M243" s="11" t="s">
+      <c r="M243" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="N243" s="11"/>
-      <c r="O243" s="11" t="s">
+      <c r="N243" s="13"/>
+      <c r="O243" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="P243" s="11" t="s">
+      <c r="P243" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q243" s="11" t="s">
+      <c r="Q243" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="R243" s="11"/>
-      <c r="S243" s="11"/>
-      <c r="T243" s="11" t="s">
+      <c r="R243" s="13"/>
+      <c r="S243" s="13"/>
+      <c r="T243" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="U243" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="V243" s="11"/>
+      <c r="U243" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="V243" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
